--- a/Replenishment/daily work/daily work.xlsx
+++ b/Replenishment/daily work/daily work.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <x:si>
     <x:t>Material</x:t>
   </x:si>
@@ -631,7 +631,7 @@
     <x:t>-2146826246</x:t>
   </x:si>
   <x:si>
-    <x:t>5</x:t>
+    <x:t>10</x:t>
   </x:si>
   <x:si>
     <x:t>3007159</x:t>
@@ -649,6 +649,9 @@
     <x:t>AERIUS 5MG 20/TAB+ ($$)</x:t>
   </x:si>
   <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
     <x:t>3003031</x:t>
   </x:si>
   <x:si>
@@ -661,7 +664,7 @@
     <x:t>AKNE-MYCIN 2% 25ML/LOTION</x:t>
   </x:si>
   <x:si>
-    <x:t>3</x:t>
+    <x:t>6</x:t>
   </x:si>
   <x:si>
     <x:t>3006366</x:t>
@@ -677,6 +680,9 @@
   </x:si>
   <x:si>
     <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
   </x:si>
   <x:si>
     <x:t>3006028</x:t>
@@ -697,7 +703,7 @@
     <x:t>BABY 60GM/CREAM</x:t>
   </x:si>
   <x:si>
-    <x:t>4</x:t>
+    <x:t>3</x:t>
   </x:si>
   <x:si>
     <x:t>3003867</x:t>
@@ -710,9 +716,6 @@
   </x:si>
   <x:si>
     <x:t>CEVAMOL 12/EFF.TAB($$)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
   </x:si>
   <x:si>
     <x:t>3002477</x:t>
@@ -737,6 +740,9 @@
   </x:si>
   <x:si>
     <x:t>ENSURE VANILLA 400GM/POWDER+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
   </x:si>
   <x:si>
     <x:t>2002900</x:t>
@@ -871,6 +877,9 @@
     <x:t>PHYSIOMER(STRONG JET)210ML/NASAL SP.+</x:t>
   </x:si>
   <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
     <x:t>3001383</x:t>
   </x:si>
   <x:si>
@@ -907,7 +916,7 @@
     <x:t>1000</x:t>
   </x:si>
   <x:si>
-    <x:t>20</x:t>
+    <x:t>31</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -31107,31 +31116,31 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>197</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s"/>
     </x:row>
     <x:row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A7" s="2" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
         <x:v>203</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>197</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s"/>
     </x:row>
     <x:row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A8" s="2" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>197</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s"/>
     </x:row>
@@ -31154,15 +31163,15 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>199</x:v>
@@ -31170,13 +31179,13 @@
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -31220,7 +31229,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -31247,10 +31256,10 @@
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="A19" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>199</x:v>
@@ -31258,10 +31267,10 @@
     </x:row>
     <x:row r="20" spans="1:4">
       <x:c r="A20" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
         <x:v>199</x:v>
@@ -31269,13 +31278,13 @@
     </x:row>
     <x:row r="21" spans="1:4">
       <x:c r="A21" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
@@ -31286,18 +31295,18 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
       <x:c r="A23" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -31330,7 +31339,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
@@ -31341,7 +31350,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
@@ -31352,7 +31361,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
@@ -31363,7 +31372,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
@@ -31379,13 +31388,13 @@
     </x:row>
     <x:row r="31" spans="1:4">
       <x:c r="A31" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
@@ -31401,35 +31410,35 @@
     </x:row>
     <x:row r="33" spans="1:4">
       <x:c r="A33" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4">
       <x:c r="A34" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
       <x:c r="A35" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
@@ -31451,7 +31460,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
@@ -31478,13 +31487,13 @@
     </x:row>
     <x:row r="40" spans="1:4">
       <x:c r="A40" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4">
@@ -31495,7 +31504,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4">
@@ -31511,46 +31520,46 @@
     </x:row>
     <x:row r="43" spans="1:4">
       <x:c r="A43" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:4">
       <x:c r="A44" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:4">
       <x:c r="A45" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:4">
       <x:c r="A46" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:4">
@@ -31577,13 +31586,13 @@
     </x:row>
     <x:row r="49" spans="1:4">
       <x:c r="A49" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:4">
@@ -31599,10 +31608,10 @@
     </x:row>
     <x:row r="51" spans="1:4">
       <x:c r="A51" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
         <x:v>199</x:v>
@@ -31627,7 +31636,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:4">
@@ -31654,10 +31663,10 @@
     </x:row>
     <x:row r="56" spans="1:4">
       <x:c r="A56" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
         <x:v>199</x:v>
@@ -31676,13 +31685,13 @@
     </x:row>
     <x:row r="58" spans="1:4">
       <x:c r="A58" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:4">
@@ -31693,18 +31702,18 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:4">
       <x:c r="A60" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:4">
@@ -31715,7 +31724,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:4">
@@ -31731,10 +31740,10 @@
     </x:row>
     <x:row r="63" spans="1:4">
       <x:c r="A63" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
         <x:v>199</x:v>
@@ -31742,10 +31751,10 @@
     </x:row>
     <x:row r="64" spans="1:4">
       <x:c r="A64" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
         <x:v>200</x:v>
@@ -31764,10 +31773,10 @@
     </x:row>
     <x:row r="66" spans="1:4">
       <x:c r="A66" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
         <x:v>200</x:v>
@@ -31775,10 +31784,10 @@
     </x:row>
     <x:row r="67" spans="1:4">
       <x:c r="A67" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
         <x:v>200</x:v>
@@ -31786,24 +31795,24 @@
     </x:row>
     <x:row r="68" spans="1:4">
       <x:c r="A68" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:4">
       <x:c r="A69" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:4">
@@ -31814,7 +31823,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:4">
@@ -31830,10 +31839,10 @@
     </x:row>
     <x:row r="72" spans="1:4">
       <x:c r="A72" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>200</x:v>
@@ -31847,26 +31856,26 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:4">
       <x:c r="A74" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:4">
       <x:c r="A75" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
         <x:v>199</x:v>
@@ -31874,10 +31883,10 @@
     </x:row>
     <x:row r="76" spans="1:4">
       <x:c r="A76" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
         <x:v>199</x:v>
@@ -31885,10 +31894,10 @@
     </x:row>
     <x:row r="77" spans="1:4">
       <x:c r="A77" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
         <x:v>199</x:v>
@@ -31896,10 +31905,10 @@
     </x:row>
     <x:row r="78" spans="1:4">
       <x:c r="A78" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
         <x:v>199</x:v>
@@ -31907,10 +31916,10 @@
     </x:row>
     <x:row r="79" spans="1:4">
       <x:c r="A79" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
         <x:v>199</x:v>
@@ -31924,7 +31933,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:4">
@@ -31957,7 +31966,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:4">
@@ -31973,10 +31982,10 @@
     </x:row>
     <x:row r="85" spans="1:4">
       <x:c r="A85" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>200</x:v>
@@ -32012,7 +32021,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:4">
@@ -32023,7 +32032,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:4">
@@ -32034,7 +32043,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:4">
@@ -32045,7 +32054,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:4">
@@ -32067,7 +32076,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:4">
@@ -32078,7 +32087,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:4">
@@ -32089,7 +32098,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:4">
@@ -32100,7 +32109,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:4">
@@ -32116,13 +32125,13 @@
     </x:row>
     <x:row r="98" spans="1:4">
       <x:c r="A98" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:4">
@@ -32133,7 +32142,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:4">
@@ -32144,7 +32153,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:4">
@@ -32155,7 +32164,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:4">
@@ -32166,7 +32175,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:4">
@@ -32177,7 +32186,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:4">
@@ -32188,18 +32197,18 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:4">
       <x:c r="A105" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:4">
@@ -32210,7 +32219,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:4">
@@ -32221,15 +32230,15 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:4">
       <x:c r="A108" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
         <x:v>200</x:v>
@@ -32237,13 +32246,13 @@
     </x:row>
     <x:row r="109" spans="1:4">
       <x:c r="A109" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:4">
@@ -32270,13 +32279,13 @@
     </x:row>
     <x:row r="112" spans="1:4">
       <x:c r="A112" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
         <x:v>174</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
